--- a/excel-20160107/excel-workbook.xlsx
+++ b/excel-20160107/excel-workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="571" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="745" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="String Functions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="19" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -4799,6 +4799,11 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4814,11 +4819,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="127">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -8623,7 +8623,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:B61" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -9248,23 +9248,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="29"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
@@ -12727,18 +12727,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
@@ -30198,16 +30198,16 @@
       <c r="C3" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
@@ -30216,14 +30216,14 @@
       <c r="B4" s="6">
         <v>19</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
@@ -30232,14 +30232,14 @@
       <c r="B5" s="6">
         <v>29</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
@@ -30248,14 +30248,14 @@
       <c r="B6" s="6">
         <v>36</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
@@ -36458,11 +36458,11 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="J24" s="30" t="s">
+      <c r="J24" s="33" t="s">
         <v>1455</v>
       </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
     </row>
     <row r="25" spans="1:14">
       <c r="C25" s="26">
@@ -36824,8 +36824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F714"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M39" sqref="M39:N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -51100,8 +51100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -51114,12 +51114,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="28" t="s">
         <v>1472</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>1473</v>
       </c>
       <c r="B4" t="s">
@@ -51127,458 +51127,458 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="B5" s="35">
+      <c r="B5" s="30">
         <v>84000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="30">
         <v>416500</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="29" t="s">
         <v>1205</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="30">
         <v>38500</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="29" t="s">
         <v>1024</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="30">
         <v>105000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="29" t="s">
         <v>448</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="30">
         <v>238000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="29" t="s">
         <v>706</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="30">
         <v>280000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="30">
         <v>871500</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="30">
         <v>196000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="30">
         <v>4417000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="29" t="s">
         <v>670</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="30">
         <v>136500</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="29" t="s">
         <v>1063</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="30">
         <v>122500</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="B16" s="35">
+      <c r="B16" s="30">
         <v>360500</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="29" t="s">
         <v>284</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="30">
         <v>2985500</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="30">
         <v>287000</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="30">
         <v>273000</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="B20" s="35">
+      <c r="B20" s="30">
         <v>52500</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="B21" s="35">
+      <c r="B21" s="30">
         <v>651000</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="B22" s="35">
+      <c r="B22" s="30">
         <v>140000</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="30">
         <v>4809000</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="29" t="s">
         <v>660</v>
       </c>
-      <c r="B24" s="35">
+      <c r="B24" s="30">
         <v>304500</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="29" t="s">
         <v>932</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="30">
         <v>49000</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="B26" s="35">
+      <c r="B26" s="30">
         <v>1428000</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="30">
         <v>248500</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="29" t="s">
         <v>954</v>
       </c>
-      <c r="B28" s="35">
+      <c r="B28" s="30">
         <v>66500</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="B29" s="35">
+      <c r="B29" s="30">
         <v>763000</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="29" t="s">
         <v>434</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="30">
         <v>630000</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="29" t="s">
         <v>715</v>
       </c>
-      <c r="B31" s="35">
+      <c r="B31" s="30">
         <v>77000</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="29" t="s">
         <v>431</v>
       </c>
-      <c r="B32" s="35">
+      <c r="B32" s="30">
         <v>210000</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="B33" s="35">
+      <c r="B33" s="30">
         <v>434000</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="B34" s="35">
+      <c r="B34" s="30">
         <v>906500</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="B35" s="35">
+      <c r="B35" s="30">
         <v>1050000</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="29" t="s">
         <v>1217</v>
       </c>
-      <c r="B36" s="35">
+      <c r="B36" s="30">
         <v>49000</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="29" t="s">
         <v>299</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="30">
         <v>217000</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="29" t="s">
         <v>655</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="30">
         <v>140000</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="B39" s="35">
+      <c r="B39" s="30">
         <v>339500</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="B40" s="35">
+      <c r="B40" s="30">
         <v>136500</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="30">
         <v>504000</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="B42" s="35">
+      <c r="B42" s="30">
         <v>329000</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="B43" s="35">
+      <c r="B43" s="30">
         <v>815500</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="B44" s="35">
+      <c r="B44" s="30">
         <v>213500</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="29" t="s">
         <v>1045</v>
       </c>
-      <c r="B45" s="35">
+      <c r="B45" s="30">
         <v>28000</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="B46" s="35">
+      <c r="B46" s="30">
         <v>217000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="34" t="s">
+      <c r="A47" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="B47" s="35">
+      <c r="B47" s="30">
         <v>140000</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="B48" s="35">
+      <c r="B48" s="30">
         <v>1151500</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="B49" s="35">
+      <c r="B49" s="30">
         <v>178500</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="B50" s="35">
+      <c r="B50" s="30">
         <v>38500</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="B51" s="35">
+      <c r="B51" s="30">
         <v>1197000</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="29" t="s">
         <v>891</v>
       </c>
-      <c r="B52" s="35">
+      <c r="B52" s="30">
         <v>189000</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="B53" s="35">
+      <c r="B53" s="30">
         <v>136500</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="34" t="s">
+      <c r="A54" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="B54" s="35">
+      <c r="B54" s="30">
         <v>1277500</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="B55" s="35">
+      <c r="B55" s="30">
         <v>385000</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="B56" s="35">
+      <c r="B56" s="30">
         <v>234500</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="B57" s="35">
+      <c r="B57" s="30">
         <v>700000</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="34" t="s">
+      <c r="A58" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="B58" s="35">
+      <c r="B58" s="30">
         <v>1841000</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="34" t="s">
+      <c r="A59" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="B59" s="35">
+      <c r="B59" s="30">
         <v>2887500</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="34" t="s">
+      <c r="A60" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="B60" s="35">
+      <c r="B60" s="30">
         <v>549500</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="34" t="s">
+      <c r="A61" s="29" t="s">
         <v>1474</v>
       </c>
-      <c r="B61" s="35">
+      <c r="B61" s="30">
         <v>36526000</v>
       </c>
     </row>
